--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -20,13 +20,14 @@
     <sheet name="Manufacturers" sheetId="7" r:id="rId11"/>
     <sheet name="FundingSources" sheetId="5" r:id="rId12"/>
     <sheet name="PurchaseOrders" sheetId="8" r:id="rId13"/>
+    <sheet name="Rooms" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>Serial</t>
   </si>
@@ -356,6 +357,15 @@
   </si>
   <si>
     <t>Fields evaluated are Tag, PO Number, Vendor Name, Model Number, Manufacturer Name, Product Name, Product Type</t>
+  </si>
+  <si>
+    <t>Room Description</t>
+  </si>
+  <si>
+    <t>Room Type</t>
+  </si>
+  <si>
+    <t>Rooms</t>
   </si>
 </sst>
 </file>
@@ -743,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1055,11 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1062,6 +1077,7 @@
     <hyperlink ref="A28" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
     <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
+    <hyperlink ref="A40" location="Rooms!A1" display="Rooms"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1160,7 +1176,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1197,45 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -15,19 +15,20 @@
     <sheet name="DupSerial" sheetId="1" r:id="rId6"/>
     <sheet name="DupStuStaffID" sheetId="10" r:id="rId7"/>
     <sheet name="DupStudStaffIDByName" sheetId="11" r:id="rId8"/>
-    <sheet name="SiteIDs" sheetId="6" r:id="rId9"/>
-    <sheet name="Vendors" sheetId="12" r:id="rId10"/>
-    <sheet name="Manufacturers" sheetId="7" r:id="rId11"/>
-    <sheet name="FundingSources" sheetId="5" r:id="rId12"/>
-    <sheet name="PurchaseOrders" sheetId="8" r:id="rId13"/>
-    <sheet name="Rooms" sheetId="18" r:id="rId14"/>
+    <sheet name="DuplProductLife" sheetId="19" r:id="rId9"/>
+    <sheet name="SiteIDs" sheetId="6" r:id="rId10"/>
+    <sheet name="Vendors" sheetId="12" r:id="rId11"/>
+    <sheet name="Manufacturers" sheetId="7" r:id="rId12"/>
+    <sheet name="FundingSources" sheetId="5" r:id="rId13"/>
+    <sheet name="PurchaseOrders" sheetId="8" r:id="rId14"/>
+    <sheet name="Rooms" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Serial</t>
   </si>
@@ -366,6 +367,18 @@
   </si>
   <si>
     <t>Rooms</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Model</t>
+  </si>
+  <si>
+    <t>Projected Life</t>
+  </si>
+  <si>
+    <t>Duplicate Product Projected Life</t>
   </si>
 </sst>
 </file>
@@ -753,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,52 +1037,57 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A30" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A38" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A37" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A39" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A35" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A36" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A39" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A38" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A40" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A36" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A37" location="Vendors!A1" display="Vendors"/>
     <hyperlink ref="A27" location="DupProd!A1" display="Duplicate Products"/>
     <hyperlink ref="A29" location="DupTag!A1" display="Duplicate Tags"/>
     <hyperlink ref="A32" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
@@ -1077,7 +1095,8 @@
     <hyperlink ref="A28" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
     <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A40" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A41" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A33" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1085,6 +1104,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1112,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1143,7 +1190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1171,7 +1218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1202,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1552,9 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1581,27 +1626,41 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
+    <hyperlink ref="G2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>Serial</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Duplicate Product Projected Life</t>
+  </si>
+  <si>
+    <t>Missing Parent Tag</t>
+  </si>
+  <si>
+    <t>Parent Tag not in Tag List</t>
+  </si>
+  <si>
+    <t>Tag indicates that it is a child/component but the indicated Parent Tag does not exist</t>
   </si>
 </sst>
 </file>
@@ -766,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,151 +961,162 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A39" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A38" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A40" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A36" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A37" location="Vendors!A1" display="Vendors"/>
-    <hyperlink ref="A27" location="DupProd!A1" display="Duplicate Products"/>
-    <hyperlink ref="A29" location="DupTag!A1" display="Duplicate Tags"/>
-    <hyperlink ref="A32" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
-    <hyperlink ref="A31" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
-    <hyperlink ref="A28" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
+    <hyperlink ref="A31" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
+    <hyperlink ref="A40" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A39" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A41" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A37" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A38" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A28" location="DupProd!A1" display="Duplicate Products"/>
+    <hyperlink ref="A30" location="DupTag!A1" display="Duplicate Tags"/>
+    <hyperlink ref="A33" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
+    <hyperlink ref="A32" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
+    <hyperlink ref="A29" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A41" location="Rooms!A1" display="Rooms"/>
-    <hyperlink ref="A33" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="B21" location="MasterList!A1" display="Master List"/>
+    <hyperlink ref="A42" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A34" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
   <si>
     <t>Serial</t>
   </si>
@@ -388,13 +388,25 @@
   </si>
   <si>
     <t>Tag indicates that it is a child/component but the indicated Parent Tag does not exist</t>
+  </si>
+  <si>
+    <t>Special Case - Parent Tags</t>
+  </si>
+  <si>
+    <t>Parent and Component at Different Locations</t>
+  </si>
+  <si>
+    <t>Parent/Component Tags in Different Locations</t>
+  </si>
+  <si>
+    <t>If the component tag is part of the parent tag, both should be at the same location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +432,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -470,6 +489,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,16 +795,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,162 +981,178 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>117</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>24</v>
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A31" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A40" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A39" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A41" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A37" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A38" location="Vendors!A1" display="Vendors"/>
-    <hyperlink ref="A28" location="DupProd!A1" display="Duplicate Products"/>
-    <hyperlink ref="A30" location="DupTag!A1" display="Duplicate Tags"/>
-    <hyperlink ref="A33" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
-    <hyperlink ref="A32" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
-    <hyperlink ref="A29" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
+    <hyperlink ref="A34" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
+    <hyperlink ref="A43" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A42" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A44" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A40" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A41" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A31" location="DupProd!A1" display="Duplicate Products"/>
+    <hyperlink ref="A33" location="DupTag!A1" display="Duplicate Tags"/>
+    <hyperlink ref="A36" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
+    <hyperlink ref="A35" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
+    <hyperlink ref="A32" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="B21" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A42" location="Rooms!A1" display="Rooms"/>
-    <hyperlink ref="A34" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="B24" location="MasterList!A1" display="Master List"/>
+    <hyperlink ref="A45" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A37" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
   <si>
     <t>Serial</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>If the component tag is part of the parent tag, both should be at the same location</t>
+  </si>
+  <si>
+    <t>Invalid Data Type for CustomField4 Value in Record</t>
+  </si>
+  <si>
+    <t>Invalid Custom Data Type</t>
+  </si>
+  <si>
+    <t>Valued for custom data does not match the data type for the field</t>
   </si>
 </sst>
 </file>
@@ -795,16 +804,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1008,151 +1017,162 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A34" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A43" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A42" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A44" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A40" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A41" location="Vendors!A1" display="Vendors"/>
-    <hyperlink ref="A31" location="DupProd!A1" display="Duplicate Products"/>
-    <hyperlink ref="A33" location="DupTag!A1" display="Duplicate Tags"/>
-    <hyperlink ref="A36" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
-    <hyperlink ref="A35" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
-    <hyperlink ref="A32" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
+    <hyperlink ref="A35" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
+    <hyperlink ref="A44" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A43" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A45" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A41" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A42" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A32" location="DupProd!A1" display="Duplicate Products"/>
+    <hyperlink ref="A34" location="DupTag!A1" display="Duplicate Tags"/>
+    <hyperlink ref="A37" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
+    <hyperlink ref="A36" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
+    <hyperlink ref="A33" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="B24" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A45" location="Rooms!A1" display="Rooms"/>
-    <hyperlink ref="A37" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="B25" location="MasterList!A1" display="Master List"/>
+    <hyperlink ref="A46" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A38" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -22,13 +22,14 @@
     <sheet name="FundingSources" sheetId="5" r:id="rId13"/>
     <sheet name="PurchaseOrders" sheetId="8" r:id="rId14"/>
     <sheet name="Rooms" sheetId="18" r:id="rId15"/>
+    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>Serial</t>
   </si>
@@ -195,9 +196,6 @@
     <t>Missing Teachers In TipWeb</t>
   </si>
   <si>
-    <t>Error Message in Master File</t>
-  </si>
-  <si>
     <t>Missing Product Type</t>
   </si>
   <si>
@@ -402,13 +400,73 @@
     <t>If the component tag is part of the parent tag, both should be at the same location</t>
   </si>
   <si>
-    <t>Invalid Data Type for CustomField4 Value in Record</t>
-  </si>
-  <si>
     <t>Invalid Custom Data Type</t>
   </si>
   <si>
     <t>Valued for custom data does not match the data type for the field</t>
+  </si>
+  <si>
+    <t>Special Case - Accessories</t>
+  </si>
+  <si>
+    <t>Missing Accessory Included</t>
+  </si>
+  <si>
+    <t>Accessory Exists for this product but it is not indicated whether it is included for this asset</t>
+  </si>
+  <si>
+    <t>AccessoryName1</t>
+  </si>
+  <si>
+    <t>AccessoryPrice1</t>
+  </si>
+  <si>
+    <t>AccessoryQuantity1</t>
+  </si>
+  <si>
+    <t>AccessoryConsumable1</t>
+  </si>
+  <si>
+    <t>Is Valid</t>
+  </si>
+  <si>
+    <t>Invalid Message</t>
+  </si>
+  <si>
+    <t>AccessoryName2</t>
+  </si>
+  <si>
+    <t>AccessoryPrice2</t>
+  </si>
+  <si>
+    <t>AccessoryQuantity2</t>
+  </si>
+  <si>
+    <t>AccessoryConsumable2</t>
+  </si>
+  <si>
+    <t>AccessoryName3</t>
+  </si>
+  <si>
+    <t>AccessoryPrice3</t>
+  </si>
+  <si>
+    <t>AccessoryQuantity3</t>
+  </si>
+  <si>
+    <t>AccessoryConsumable4</t>
+  </si>
+  <si>
+    <t>Invalid Accessory Definition</t>
+  </si>
+  <si>
+    <t>Error Message in Master List</t>
+  </si>
+  <si>
+    <t>Invalid Data Type for CustomField Value in Record</t>
+  </si>
+  <si>
+    <t>Special Case - Custom Fields</t>
   </si>
 </sst>
 </file>
@@ -804,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -832,26 +890,26 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +917,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,18 +938,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +957,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,10 +965,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +976,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,32 +987,32 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,10 +1020,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,206 +1031,236 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>106</v>
       </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
+      <c r="A27" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>45</v>
+      <c r="A31" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
+      <c r="A35" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>41</v>
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
+      <c r="A38" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>26</v>
+      <c r="A41" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A35" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A44" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A43" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A45" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A41" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A42" location="Vendors!A1" display="Vendors"/>
-    <hyperlink ref="A32" location="DupProd!A1" display="Duplicate Products"/>
-    <hyperlink ref="A34" location="DupTag!A1" display="Duplicate Tags"/>
-    <hyperlink ref="A37" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
-    <hyperlink ref="A36" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
-    <hyperlink ref="A33" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
+    <hyperlink ref="A45" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
+    <hyperlink ref="A54" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A53" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A55" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A51" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A52" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A42" location="DupProd!A1" display="Duplicate Products"/>
+    <hyperlink ref="A44" location="DupTag!A1" display="Duplicate Tags"/>
+    <hyperlink ref="A47" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
+    <hyperlink ref="A46" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
+    <hyperlink ref="A43" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="B25" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A46" location="Rooms!A1" display="Rooms"/>
-    <hyperlink ref="A38" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
+    <hyperlink ref="A56" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A48" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="A37" location="AcessoryDefinition!A1" display="Invalid Accessory Definition"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1330,7 +1418,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,13 +1430,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,6 +1447,76 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1376,10 +1534,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1391,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -1400,22 +1558,22 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
         <v>3</v>
@@ -1430,22 +1588,22 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>89</v>
-      </c>
-      <c r="U1" t="s">
-        <v>90</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
       </c>
       <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
         <v>91</v>
-      </c>
-      <c r="X1" t="s">
-        <v>92</v>
       </c>
       <c r="Y1" t="s">
         <v>20</v>
@@ -1454,22 +1612,22 @@
         <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB1" t="s">
         <v>8</v>
       </c>
       <c r="AC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>96</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1717,16 +1875,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
   <si>
     <t>Serial</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Missing Accessory Included</t>
   </si>
   <si>
-    <t>Accessory Exists for this product but it is not indicated whether it is included for this asset</t>
-  </si>
-  <si>
     <t>AccessoryName1</t>
   </si>
   <si>
@@ -467,6 +464,12 @@
   </si>
   <si>
     <t>Special Case - Custom Fields</t>
+  </si>
+  <si>
+    <t>Accessory1Included is Not Included for this Product</t>
+  </si>
+  <si>
+    <t>Note that the message can either be for Accessory1Included, Accessory2Included, or Accessory3Included</t>
   </si>
 </sst>
 </file>
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1118,7 +1121,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,7 +1129,7 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>124</v>
@@ -1142,15 +1145,15 @@
         <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,46 +1470,46 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>132</v>
-      </c>
-      <c r="O1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Validation Overview" sheetId="9" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="FundingSources" sheetId="5" r:id="rId13"/>
     <sheet name="PurchaseOrders" sheetId="8" r:id="rId14"/>
     <sheet name="Rooms" sheetId="18" r:id="rId15"/>
-    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId16"/>
+    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId16"/>
+    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
   <si>
     <t>Serial</t>
   </si>
@@ -409,9 +410,6 @@
     <t>Special Case - Accessories</t>
   </si>
   <si>
-    <t>Missing Accessory Included</t>
-  </si>
-  <si>
     <t>AccessoryName1</t>
   </si>
   <si>
@@ -424,9 +422,6 @@
     <t>AccessoryConsumable1</t>
   </si>
   <si>
-    <t>Is Valid</t>
-  </si>
-  <si>
     <t>Invalid Message</t>
   </si>
   <si>
@@ -451,12 +446,6 @@
     <t>AccessoryQuantity3</t>
   </si>
   <si>
-    <t>AccessoryConsumable4</t>
-  </si>
-  <si>
-    <t>Invalid Accessory Definition</t>
-  </si>
-  <si>
     <t>Error Message in Master List</t>
   </si>
   <si>
@@ -470,6 +459,24 @@
   </si>
   <si>
     <t>Note that the message can either be for Accessory1Included, Accessory2Included, or Accessory3Included</t>
+  </si>
+  <si>
+    <t>Missing Accessory Included for Tag</t>
+  </si>
+  <si>
+    <t>Accessory Definition Errors</t>
+  </si>
+  <si>
+    <t>AccessoryName</t>
+  </si>
+  <si>
+    <t>numDup</t>
+  </si>
+  <si>
+    <t>Duplicate Accessory Definitions</t>
+  </si>
+  <si>
+    <t>AccessoryConsumable3</t>
   </si>
 </sst>
 </file>
@@ -558,8 +565,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,9 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -882,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1093,7 +1098,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1120,8 +1125,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>144</v>
+      <c r="A31" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1129,35 +1134,37 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -1263,7 +1270,8 @@
     <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
     <hyperlink ref="A56" location="Rooms!A1" display="Rooms"/>
     <hyperlink ref="A48" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
-    <hyperlink ref="A37" location="AcessoryDefinition!A1" display="Invalid Accessory Definition"/>
+    <hyperlink ref="A37" location="AcessoryDefinition!A1" display="Accessory Definition Errors"/>
+    <hyperlink ref="A38" location="AccessoryDuplication!A1" display="Duplicate Accessory Definitions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1457,69 +1465,105 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" location="'Validation Overview'!A1" display="Return to Overview"/>
+    <hyperlink ref="P2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1527,117 +1571,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Y2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="Validation Overview" sheetId="9" r:id="rId1"/>
@@ -16,21 +16,22 @@
     <sheet name="DupStuStaffID" sheetId="10" r:id="rId7"/>
     <sheet name="DupStudStaffIDByName" sheetId="11" r:id="rId8"/>
     <sheet name="DuplProductLife" sheetId="19" r:id="rId9"/>
-    <sheet name="SiteIDs" sheetId="6" r:id="rId10"/>
-    <sheet name="Vendors" sheetId="12" r:id="rId11"/>
-    <sheet name="Manufacturers" sheetId="7" r:id="rId12"/>
-    <sheet name="FundingSources" sheetId="5" r:id="rId13"/>
-    <sheet name="PurchaseOrders" sheetId="8" r:id="rId14"/>
-    <sheet name="Rooms" sheetId="18" r:id="rId15"/>
-    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId16"/>
-    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId17"/>
+    <sheet name="DupSerialRequired" sheetId="22" r:id="rId10"/>
+    <sheet name="SiteIDs" sheetId="6" r:id="rId11"/>
+    <sheet name="Vendors" sheetId="12" r:id="rId12"/>
+    <sheet name="Manufacturers" sheetId="7" r:id="rId13"/>
+    <sheet name="FundingSources" sheetId="5" r:id="rId14"/>
+    <sheet name="PurchaseOrders" sheetId="8" r:id="rId15"/>
+    <sheet name="Rooms" sheetId="18" r:id="rId16"/>
+    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId17"/>
+    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="152">
   <si>
     <t>Serial</t>
   </si>
@@ -477,6 +478,15 @@
   </si>
   <si>
     <t>AccessoryConsumable3</t>
+  </si>
+  <si>
+    <t>Duplicate SerialRequired</t>
+  </si>
+  <si>
+    <t>dupcount</t>
+  </si>
+  <si>
+    <t>Products with multiple values for serialRequired</t>
   </si>
 </sst>
 </file>
@@ -554,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -567,6 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,17 +883,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -893,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -904,7 +915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -912,7 +923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
@@ -920,7 +931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -928,7 +939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -936,7 +947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -944,7 +955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -952,7 +963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -960,7 +971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -968,7 +979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -979,7 +990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1023,7 +1034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1034,7 +1045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1056,7 +1067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1086,7 +1097,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1097,12 +1108,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -1113,7 +1124,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -1124,12 +1135,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -1140,12 +1151,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -1156,22 +1167,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
@@ -1179,22 +1190,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
@@ -1210,57 +1221,65 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A45" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A54" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A53" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A55" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A51" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A52" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A55" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A54" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A56" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A52" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A53" location="Vendors!A1" display="Vendors"/>
     <hyperlink ref="A42" location="DupProd!A1" display="Duplicate Products"/>
     <hyperlink ref="A44" location="DupTag!A1" display="Duplicate Tags"/>
     <hyperlink ref="A47" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
@@ -1268,10 +1287,11 @@
     <hyperlink ref="A43" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
     <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A56" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A57" location="Rooms!A1" display="Rooms"/>
     <hyperlink ref="A48" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
     <hyperlink ref="A37" location="AcessoryDefinition!A1" display="Accessory Definition Errors"/>
     <hyperlink ref="A38" location="AccessoryDuplication!A1" display="Duplicate Accessory Definitions"/>
+    <hyperlink ref="A49" location="DupSerialRequired!A1" display="Duplicate SerialRequired"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1280,20 +1300,61 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1314,14 +1375,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1334,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1342,17 +1403,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1365,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1373,14 +1434,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1393,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1401,9 +1462,9 @@
       <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1424,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1432,14 +1493,14 @@
       <selection activeCell="H2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1450,7 +1511,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1463,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1471,14 +1532,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1510,9 +1571,9 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1617,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1573,16 +1634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
@@ -1692,15 +1753,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1738,14 +1799,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1759,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1779,12 +1840,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1813,13 +1874,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1851,9 +1912,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1883,17 +1944,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1914,14 +1975,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1935,7 +1996,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -17,21 +17,26 @@
     <sheet name="DupStudStaffIDByName" sheetId="11" r:id="rId8"/>
     <sheet name="DuplProductLife" sheetId="19" r:id="rId9"/>
     <sheet name="DupSerialRequired" sheetId="22" r:id="rId10"/>
-    <sheet name="SiteIDs" sheetId="6" r:id="rId11"/>
-    <sheet name="Vendors" sheetId="12" r:id="rId12"/>
-    <sheet name="Manufacturers" sheetId="7" r:id="rId13"/>
-    <sheet name="FundingSources" sheetId="5" r:id="rId14"/>
-    <sheet name="PurchaseOrders" sheetId="8" r:id="rId15"/>
-    <sheet name="Rooms" sheetId="18" r:id="rId16"/>
-    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId17"/>
-    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId18"/>
+    <sheet name="DupProjectedLife" sheetId="23" r:id="rId11"/>
+    <sheet name="POMultPurchaseDates" sheetId="24" r:id="rId12"/>
+    <sheet name="POMultVendors" sheetId="25" r:id="rId13"/>
+    <sheet name="Duplicate SiteIDs" sheetId="26" r:id="rId14"/>
+    <sheet name="District in Site Name" sheetId="27" r:id="rId15"/>
+    <sheet name="SiteIDs" sheetId="6" r:id="rId16"/>
+    <sheet name="Vendors" sheetId="12" r:id="rId17"/>
+    <sheet name="Manufacturers" sheetId="7" r:id="rId18"/>
+    <sheet name="FundingSources" sheetId="5" r:id="rId19"/>
+    <sheet name="PurchaseOrders" sheetId="8" r:id="rId20"/>
+    <sheet name="Rooms" sheetId="18" r:id="rId21"/>
+    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId22"/>
+    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId23"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
   <si>
     <t>Serial</t>
   </si>
@@ -487,6 +492,45 @@
   </si>
   <si>
     <t>Products with multiple values for serialRequired</t>
+  </si>
+  <si>
+    <t>Duplicate ProjectedLife</t>
+  </si>
+  <si>
+    <t>Products with multiple values for ProjectedLife</t>
+  </si>
+  <si>
+    <t>PO with Multiple PurchaseDates</t>
+  </si>
+  <si>
+    <t>PO with Multiple VendorNames</t>
+  </si>
+  <si>
+    <t>DuplicateDateCount</t>
+  </si>
+  <si>
+    <t>DuplicateVendorCount</t>
+  </si>
+  <si>
+    <t>StafforStudentID Less Than 3 Characters</t>
+  </si>
+  <si>
+    <t>Duplicate SiteIDs</t>
+  </si>
+  <si>
+    <t>District in Site Name</t>
+  </si>
+  <si>
+    <t>DuplicateSiteIDCount</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -883,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,190 +1152,227 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>143</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>115</v>
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>34</v>
+      <c r="A51" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A45" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
-    <hyperlink ref="A55" location="FundingSources!A1" display="FundingSources"/>
-    <hyperlink ref="A54" location="Manufacturers!A1" display="Manufacturers"/>
-    <hyperlink ref="A56" location="PurchaseOrders!A1" display="PurchaseOrders"/>
-    <hyperlink ref="A52" location="SiteIDs!A1" display="SiteIDs"/>
-    <hyperlink ref="A53" location="Vendors!A1" display="Vendors"/>
-    <hyperlink ref="A42" location="DupProd!A1" display="Duplicate Products"/>
-    <hyperlink ref="A44" location="DupTag!A1" display="Duplicate Tags"/>
-    <hyperlink ref="A47" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
-    <hyperlink ref="A46" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
-    <hyperlink ref="A43" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
+    <hyperlink ref="A46" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
+    <hyperlink ref="A61" location="FundingSources!A1" display="FundingSources"/>
+    <hyperlink ref="A60" location="Manufacturers!A1" display="Manufacturers"/>
+    <hyperlink ref="A62" location="PurchaseOrders!A1" display="PurchaseOrders"/>
+    <hyperlink ref="A58" location="SiteIDs!A1" display="SiteIDs"/>
+    <hyperlink ref="A59" location="Vendors!A1" display="Vendors"/>
+    <hyperlink ref="A43" location="DupProd!A1" display="Duplicate Products"/>
+    <hyperlink ref="A45" location="DupTag!A1" display="Duplicate Tags"/>
+    <hyperlink ref="A48" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
+    <hyperlink ref="A47" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
+    <hyperlink ref="A44" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
     <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="A57" location="Rooms!A1" display="Rooms"/>
-    <hyperlink ref="A48" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
-    <hyperlink ref="A37" location="AcessoryDefinition!A1" display="Accessory Definition Errors"/>
-    <hyperlink ref="A38" location="AccessoryDuplication!A1" display="Duplicate Accessory Definitions"/>
-    <hyperlink ref="A49" location="DupSerialRequired!A1" display="Duplicate SerialRequired"/>
+    <hyperlink ref="A63" location="Rooms!A1" display="Rooms"/>
+    <hyperlink ref="A49" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="A38" location="AcessoryDefinition!A1" display="Accessory Definition Errors"/>
+    <hyperlink ref="A39" location="AccessoryDuplication!A1" display="Duplicate Accessory Definitions"/>
+    <hyperlink ref="A50" location="DupSerialRequired!A1" display="Duplicate SerialRequired"/>
+    <hyperlink ref="A52" location="POMultPurchaseDates!A1" display="PO with Multiple PurchaseDates"/>
+    <hyperlink ref="A53" location="POMultVendors!A1" display="PO with Multiple VendorNames"/>
+    <hyperlink ref="A54" location="'Duplicate SiteIDs'!A1" display="Duplicate SiteIDs"/>
+    <hyperlink ref="A55" location="'District in Site Name'!A1" display="District in Site Name"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1303,7 +1384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1337,6 +1418,202 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="9"/>
+    <col min="6" max="6" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1367,7 +1644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1395,7 +1672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1426,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1454,7 +1731,122 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1485,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1524,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1563,7 +1955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1627,123 +2019,6 @@
     <hyperlink ref="P2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.109375" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="Validation Overview" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
   <si>
     <t>Serial</t>
   </si>
@@ -504,12 +504,6 @@
   </si>
   <si>
     <t>PO with Multiple VendorNames</t>
-  </si>
-  <si>
-    <t>DuplicateDateCount</t>
-  </si>
-  <si>
-    <t>DuplicateVendorCount</t>
   </si>
   <si>
     <t>StafforStudentID Less Than 3 Characters</t>
@@ -608,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -622,6 +616,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -931,13 +928,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -948,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -959,7 +956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -967,7 +964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
@@ -975,7 +972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -983,7 +980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -991,7 +988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -999,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1007,7 +1004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1015,7 +1012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1056,7 +1053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1089,7 +1086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1122,7 +1119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1133,7 +1130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1152,17 +1149,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -1184,12 +1181,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1200,12 +1197,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -1216,22 +1213,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
@@ -1239,22 +1236,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -1270,12 +1267,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>149</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>152</v>
       </c>
@@ -1291,27 +1288,27 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -1319,32 +1316,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>111</v>
       </c>
@@ -1387,15 +1384,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="9"/>
+    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1400,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
@@ -1425,15 +1422,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="9"/>
+    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
@@ -1459,25 +1456,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
@@ -1492,32 +1490,36 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="9" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1535,23 +1537,23 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
@@ -1572,17 +1574,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="9"/>
-    <col min="6" max="6" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="9"/>
+    <col min="6" max="6" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1590,16 +1592,16 @@
         <v>86</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="10"/>
       <c r="F2" s="10" t="s">
         <v>28</v>
@@ -1621,17 +1623,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1652,14 +1654,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1680,17 +1682,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1711,14 +1713,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1737,12 +1739,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
@@ -1854,9 +1856,9 @@
       <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1885,14 +1887,14 @@
       <selection activeCell="H2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1924,14 +1926,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1963,9 +1965,9 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2026,17 +2028,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2074,14 +2078,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2115,12 +2119,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2149,13 +2153,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2187,9 +2191,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2219,17 +2223,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2250,14 +2254,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -15,28 +15,27 @@
     <sheet name="DupSerial" sheetId="1" r:id="rId6"/>
     <sheet name="DupStuStaffID" sheetId="10" r:id="rId7"/>
     <sheet name="DupStudStaffIDByName" sheetId="11" r:id="rId8"/>
-    <sheet name="DuplProductLife" sheetId="19" r:id="rId9"/>
+    <sheet name="DuplProdProjLife" sheetId="19" r:id="rId9"/>
     <sheet name="DupSerialRequired" sheetId="22" r:id="rId10"/>
-    <sheet name="DupProjectedLife" sheetId="23" r:id="rId11"/>
-    <sheet name="POMultPurchaseDates" sheetId="24" r:id="rId12"/>
-    <sheet name="POMultVendors" sheetId="25" r:id="rId13"/>
-    <sheet name="Duplicate SiteIDs" sheetId="26" r:id="rId14"/>
-    <sheet name="District in Site Name" sheetId="27" r:id="rId15"/>
-    <sheet name="SiteIDs" sheetId="6" r:id="rId16"/>
-    <sheet name="Vendors" sheetId="12" r:id="rId17"/>
-    <sheet name="Manufacturers" sheetId="7" r:id="rId18"/>
-    <sheet name="FundingSources" sheetId="5" r:id="rId19"/>
-    <sheet name="PurchaseOrders" sheetId="8" r:id="rId20"/>
-    <sheet name="Rooms" sheetId="18" r:id="rId21"/>
-    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId22"/>
-    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId23"/>
+    <sheet name="POMultPurchaseDates" sheetId="24" r:id="rId11"/>
+    <sheet name="POMultVendors" sheetId="25" r:id="rId12"/>
+    <sheet name="Duplicate SiteIDs" sheetId="26" r:id="rId13"/>
+    <sheet name="District in Site Name" sheetId="27" r:id="rId14"/>
+    <sheet name="SiteIDs" sheetId="6" r:id="rId15"/>
+    <sheet name="Vendors" sheetId="12" r:id="rId16"/>
+    <sheet name="Manufacturers" sheetId="7" r:id="rId17"/>
+    <sheet name="FundingSources" sheetId="5" r:id="rId18"/>
+    <sheet name="PurchaseOrders" sheetId="8" r:id="rId19"/>
+    <sheet name="Rooms" sheetId="18" r:id="rId20"/>
+    <sheet name="AccessoryDuplication" sheetId="21" r:id="rId21"/>
+    <sheet name="AcessoryDefinition" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="191">
   <si>
     <t>Serial</t>
   </si>
@@ -164,12 +163,6 @@
     <t>Duplicate Entity IDs</t>
   </si>
   <si>
-    <t>Duplicate Entities By Name ID and Site</t>
-  </si>
-  <si>
-    <t>Student or Staff names that are different for the same Student or Staff ID</t>
-  </si>
-  <si>
     <t>Missing Serial if Required</t>
   </si>
   <si>
@@ -230,9 +223,6 @@
     <t>Missing PO With PO Data</t>
   </si>
   <si>
-    <t>Record has all required fields for PO (Purchase Date, Price, Funding Source) but no PO</t>
-  </si>
-  <si>
     <t>If a serial for the product is required, validates that the asset has a serial number</t>
   </si>
   <si>
@@ -248,9 +238,6 @@
     <t>Missing Required Serial</t>
   </si>
   <si>
-    <t>Missing Entity Type</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -329,33 +316,6 @@
     <t>ReviewNotes</t>
   </si>
   <si>
-    <t>Missing Student/Staff ID</t>
-  </si>
-  <si>
-    <t>If Student/Staff ID, then entity type (Student or Staff) must be indicated</t>
-  </si>
-  <si>
-    <t>A Student or Staff SIS ID must be provided to associate the Tag with the person; validates only when a Name is provided</t>
-  </si>
-  <si>
-    <t>Missing Student or Staff ID</t>
-  </si>
-  <si>
-    <t>Tag number should be alpha numeric or dash only</t>
-  </si>
-  <si>
-    <t>Staff not found in tblTeachers</t>
-  </si>
-  <si>
-    <t>StudentID not found in tblStudents</t>
-  </si>
-  <si>
-    <t>SiteID not in TipWebIT</t>
-  </si>
-  <si>
-    <t>SiteID not found in tblTechSites</t>
-  </si>
-  <si>
     <t>SiteID cannot be found in the list of site provided by the District</t>
   </si>
   <si>
@@ -461,9 +421,6 @@
     <t>Special Case - Custom Fields</t>
   </si>
   <si>
-    <t>Accessory1Included is Not Included for this Product</t>
-  </si>
-  <si>
     <t>Note that the message can either be for Accessory1Included, Accessory2Included, or Accessory3Included</t>
   </si>
   <si>
@@ -485,18 +442,9 @@
     <t>AccessoryConsumable3</t>
   </si>
   <si>
-    <t>Duplicate SerialRequired</t>
-  </si>
-  <si>
-    <t>dupcount</t>
-  </si>
-  <si>
     <t>Products with multiple values for serialRequired</t>
   </si>
   <si>
-    <t>Duplicate ProjectedLife</t>
-  </si>
-  <si>
     <t>Products with multiple values for ProjectedLife</t>
   </si>
   <si>
@@ -506,9 +454,6 @@
     <t>PO with Multiple VendorNames</t>
   </si>
   <si>
-    <t>StafforStudentID Less Than 3 Characters</t>
-  </si>
-  <si>
     <t>Duplicate SiteIDs</t>
   </si>
   <si>
@@ -525,6 +470,167 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>DC SiteID</t>
+  </si>
+  <si>
+    <t>TW SiteID</t>
+  </si>
+  <si>
+    <t>In TipWebIT</t>
+  </si>
+  <si>
+    <t>In DC File</t>
+  </si>
+  <si>
+    <t>SerialRequired</t>
+  </si>
+  <si>
+    <t>Incomplete Student Staff Data</t>
+  </si>
+  <si>
+    <t>When ID, First Name or Last Name is Provided, all THREE values must be provided</t>
+  </si>
+  <si>
+    <t>Invalid Entity Type</t>
+  </si>
+  <si>
+    <t>Missing or Invalid Entity Type</t>
+  </si>
+  <si>
+    <t>If Student/Staff ID, First or Last Name are provided then a valid entity type (Student or Staff) must be indicated</t>
+  </si>
+  <si>
+    <t>Staff ID not found in TIPWebIT Database</t>
+  </si>
+  <si>
+    <t>Student ID not found in TIPWebIT Database</t>
+  </si>
+  <si>
+    <t>Student ID /Name Does not Match</t>
+  </si>
+  <si>
+    <t>Teacher ID/Name Does not Match</t>
+  </si>
+  <si>
+    <t>Student ID does not match name in TIPWebIT Database</t>
+  </si>
+  <si>
+    <t>Staff ID does not match name in TIPWebIT Database</t>
+  </si>
+  <si>
+    <t>Student Name/ID Mismatch</t>
+  </si>
+  <si>
+    <t>Staff Name/ID Mismatch</t>
+  </si>
+  <si>
+    <t>SiteID not found  in TIPWebIT Database</t>
+  </si>
+  <si>
+    <t>SiteID not found in TIPWebIT</t>
+  </si>
+  <si>
+    <t>Duplicate Staff By Name ID and Site</t>
+  </si>
+  <si>
+    <t>Staff names that are different for the same Staff ID</t>
+  </si>
+  <si>
+    <t>Duplicate Serial Required</t>
+  </si>
+  <si>
+    <t>Site ID exists more than once in the TIPWebIT database</t>
+  </si>
+  <si>
+    <t>Using the word 'District' in an Administrative area can cause confusion on the drop-down list of sites in the applicatino</t>
+  </si>
+  <si>
+    <t>PO numbers can have only one Vendor - Note that Manufacturer Name is used by default when Vendor is Blank</t>
+  </si>
+  <si>
+    <t>The same product mulitple, different entries for 'Serial Required'</t>
+  </si>
+  <si>
+    <t>Serial Numbers can be duplicated UNLESS they are being used in lieu of a missing tag</t>
+  </si>
+  <si>
+    <t>Tag number cannot be duplicated in TIPWebIT</t>
+  </si>
+  <si>
+    <t>Only a single instance of a room is allowed at each site</t>
+  </si>
+  <si>
+    <t>Accessory is defined more than once</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Accessory1Included </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is Not Included</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for this Product</t>
+    </r>
+  </si>
+  <si>
+    <t>Accessory Description is invalid</t>
+  </si>
+  <si>
+    <t>PO Numbers should be alphanumeric only; no special characters (except dash - )</t>
+  </si>
+  <si>
+    <t>Tag number should be alphanumeric only; no special characters (except dash - )</t>
+  </si>
+  <si>
+    <t>Product Manufacturer is Missing</t>
+  </si>
+  <si>
+    <t>Vendor is missing for assets from Purchase Order; Vendor is required for Purchase Orders</t>
+  </si>
+  <si>
+    <t>Asset must either be assigned to teacher, student or staff; 'Data Conversion' room can be used as a default location</t>
+  </si>
+  <si>
+    <t>Record has all required fields for PO (Purchase Date,  Funding Source) but no PO; If price is not provided, $0 will be used</t>
+  </si>
+  <si>
+    <t>Required data for PO include Vendor, Purchase Date, and Funding Source; If price is not provided, $0 will be used</t>
+  </si>
+  <si>
+    <t>All assets must have a site location designated</t>
+  </si>
+  <si>
+    <t>All assets require tags</t>
+  </si>
+  <si>
+    <t>All assets require a product type</t>
+  </si>
+  <si>
+    <t>All assets require a product name</t>
+  </si>
+  <si>
+    <t>Invalid Student or Staff ID</t>
+  </si>
+  <si>
+    <t>Staff or StudentID Less Than 3 Characters</t>
   </si>
 </sst>
 </file>
@@ -926,12 +1032,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -939,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -947,45 +1055,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,29 +1115,41 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,10 +1157,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,276 +1168,326 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>119</v>
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
+      <c r="A29" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>125</v>
+      <c r="A33" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
+      <c r="A37" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>144</v>
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
+      <c r="A43" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1495,7 @@
         <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,29 +1525,29 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A46" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
+    <hyperlink ref="A47" location="DupSerial!A1" display="Duplicate Serial Numbers"/>
     <hyperlink ref="A61" location="FundingSources!A1" display="FundingSources"/>
     <hyperlink ref="A60" location="Manufacturers!A1" display="Manufacturers"/>
     <hyperlink ref="A62" location="PurchaseOrders!A1" display="PurchaseOrders"/>
     <hyperlink ref="A58" location="SiteIDs!A1" display="SiteIDs"/>
     <hyperlink ref="A59" location="Vendors!A1" display="Vendors"/>
-    <hyperlink ref="A43" location="DupProd!A1" display="Duplicate Products"/>
-    <hyperlink ref="A45" location="DupTag!A1" display="Duplicate Tags"/>
-    <hyperlink ref="A48" location="DupStudStaffIDByName!A1" display="Duplicate Entities By Name ID and Site"/>
-    <hyperlink ref="A47" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
-    <hyperlink ref="A44" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
+    <hyperlink ref="A44" location="DupProd!A1" display="Duplicate Products"/>
+    <hyperlink ref="A46" location="DupTag!A1" display="Duplicate Tags"/>
+    <hyperlink ref="A49" location="DupStudStaffIDByName!A1" display="Duplicate Staff By Name ID and Site"/>
+    <hyperlink ref="A48" location="DupStuStaffID!A1" display="Duplicate Entity IDs"/>
+    <hyperlink ref="A45" location="DupRoom!A1" display="Duplicate Rooms At Same Site"/>
     <hyperlink ref="B2" location="MasterList!A1" display="Master List"/>
-    <hyperlink ref="B20" location="MasterList!A1" display="Master List"/>
+    <hyperlink ref="B22" location="MasterList!A1" display="Master List"/>
     <hyperlink ref="A63" location="Rooms!A1" display="Rooms"/>
-    <hyperlink ref="A49" location="DuplProductLife!A1" display="Duplicate Product Projected Life"/>
-    <hyperlink ref="A38" location="AcessoryDefinition!A1" display="Accessory Definition Errors"/>
-    <hyperlink ref="A39" location="AccessoryDuplication!A1" display="Duplicate Accessory Definitions"/>
-    <hyperlink ref="A50" location="DupSerialRequired!A1" display="Duplicate SerialRequired"/>
+    <hyperlink ref="A50" location="DuplProdProjLife!A1" display="Duplicate Product Projected Life"/>
+    <hyperlink ref="A39" location="AcessoryDefinition!A1" display="Accessory Definition Errors"/>
+    <hyperlink ref="A40" location="AccessoryDuplication!A1" display="Duplicate Accessory Definitions"/>
+    <hyperlink ref="A51" location="DupSerialRequired!A1" display="Duplicate Serial Required"/>
     <hyperlink ref="A52" location="POMultPurchaseDates!A1" display="PO with Multiple PurchaseDates"/>
     <hyperlink ref="A53" location="POMultVendors!A1" display="PO with Multiple VendorNames"/>
     <hyperlink ref="A54" location="'Duplicate SiteIDs'!A1" display="Duplicate SiteIDs"/>
@@ -1381,13 +1563,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="9"/>
   </cols>
@@ -1397,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,45 +1601,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="9"/>
-    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" location="'Validation Overview'!A1" display="Return to Overview"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,12 +1632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,12 +1673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,12 +1710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,16 +1733,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,43 +1759,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
+    <hyperlink ref="F2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,12 +1833,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,12 +1864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,11 +1892,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1746,10 +1942,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -1761,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
@@ -1770,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>3</v>
@@ -1800,22 +1996,22 @@
         <v>16</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="9" t="s">
         <v>20</v>
@@ -1824,22 +2020,22 @@
         <v>21</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1850,41 +2046,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,13 +2061,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,12 +2083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,10 +2103,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,12 +2122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,43 +2137,43 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" t="s">
-        <v>148</v>
-      </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2029,7 +2194,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2240,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2150,7 +2317,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2355,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2251,7 +2420,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,16 +2432,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
+++ b/DEV/DataConversion/DataConversion/ITValidationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Validation Overview" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="193">
   <si>
     <t>Serial</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>Staff or StudentID Less Than 3 Characters</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,33 +2286,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" location="'Validation Overview'!A1" display="Return to Overview"/>
+    <hyperlink ref="E2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2314,37 +2326,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" location="'Validation Overview'!A1" display="Return to Overview"/>
+    <hyperlink ref="F2" location="'Validation Overview'!A1" display="Return to Overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
